--- a/consumption_tables/Total energy consumption._              Billion Btu/Renewable energy total consumption._                        Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Renewable energy total consumption._                        Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,601 @@
     <t>AL</t>
   </si>
   <si>
+    <t>15.207491139515628%</t>
+  </si>
+  <si>
+    <t>14.180918212006018%</t>
+  </si>
+  <si>
+    <t>-1.0265729275096103%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>12.910744641699235%</t>
+  </si>
+  <si>
+    <t>11.53290093244731%</t>
+  </si>
+  <si>
+    <t>-1.3778437092519251%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>10.091797838133752%</t>
+  </si>
+  <si>
+    <t>10.237710115476265%</t>
+  </si>
+  <si>
+    <t>0.14591227734251255%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>9.038778781473157%</t>
+  </si>
+  <si>
+    <t>11.148906900944981%</t>
+  </si>
+  <si>
+    <t>2.110128119471824%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>2.9055259231310133%</t>
+  </si>
+  <si>
+    <t>8.641309745059372%</t>
+  </si>
+  <si>
+    <t>5.735783821928359%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>4.518115022420066%</t>
+  </si>
+  <si>
+    <t>5.420155880372857%</t>
+  </si>
+  <si>
+    <t>0.902040857952791%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>0.6471085639122469%</t>
+  </si>
+  <si>
+    <t>2.822509576821395%</t>
+  </si>
+  <si>
+    <t>2.175401012909148%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>6.084412649248261%</t>
+  </si>
+  <si>
+    <t>7.091268938478604%</t>
+  </si>
+  <si>
+    <t>1.0068562892303428%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>10.594465089953726%</t>
+  </si>
+  <si>
+    <t>10.389461899764871%</t>
+  </si>
+  <si>
+    <t>-0.2050031901888545%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>8.691715849306672%</t>
+  </si>
+  <si>
+    <t>10.208272843798907%</t>
+  </si>
+  <si>
+    <t>1.5165569944922357%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>7.826120052311573%</t>
+  </si>
+  <si>
+    <t>27.652127374899653%</t>
+  </si>
+  <si>
+    <t>19.82600732258808%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>29.52562072350733%</t>
+  </si>
+  <si>
+    <t>27.346704477623323%</t>
+  </si>
+  <si>
+    <t>-2.1789162458840075%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>2.8756204318415044%</t>
+  </si>
+  <si>
+    <t>6.383124426160487%</t>
+  </si>
+  <si>
+    <t>3.5075039943189825%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>2.43989043522988%</t>
+  </si>
+  <si>
+    <t>5.869271249982873%</t>
+  </si>
+  <si>
+    <t>3.429380814752993%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>1.3004768133676525%</t>
+  </si>
+  <si>
+    <t>13.658023832681678%</t>
+  </si>
+  <si>
+    <t>12.357547019314026%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>3.6499104800851514%</t>
+  </si>
+  <si>
+    <t>5.08746571960433%</t>
+  </si>
+  <si>
+    <t>1.4375552395191784%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>3.2531333010739676%</t>
+  </si>
+  <si>
+    <t>3.446102724225844%</t>
+  </si>
+  <si>
+    <t>0.19296942315187637%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>4.638971540514144%</t>
+  </si>
+  <si>
+    <t>5.680415874490175%</t>
+  </si>
+  <si>
+    <t>1.041444333976031%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>3.9832399108881478%</t>
+  </si>
+  <si>
+    <t>5.370405568981312%</t>
+  </si>
+  <si>
+    <t>1.387165658093164%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>33.15969488619465%</t>
+  </si>
+  <si>
+    <t>36.477595162320135%</t>
+  </si>
+  <si>
+    <t>3.317900276125485%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>3.554704122010767%</t>
+  </si>
+  <si>
+    <t>7.295070948792852%</t>
+  </si>
+  <si>
+    <t>3.7403668267820853%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>4.3519907723977065%</t>
+  </si>
+  <si>
+    <t>14.471210861953725%</t>
+  </si>
+  <si>
+    <t>10.11922008955602%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>2.9082847933957825%</t>
+  </si>
+  <si>
+    <t>5.2505528914581%</t>
+  </si>
+  <si>
+    <t>2.3422680980623176%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>8.247530881594074%</t>
+  </si>
+  <si>
+    <t>6.4008687284252535%</t>
+  </si>
+  <si>
+    <t>-1.84666215316882%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>35.497236376819515%</t>
+  </si>
+  <si>
+    <t>30.627896401436765%</t>
+  </si>
+  <si>
+    <t>-4.869339975382751%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>8.207643590346054%</t>
+  </si>
+  <si>
+    <t>8.019395186231113%</t>
+  </si>
+  <si>
+    <t>-0.18824840411494037%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>6.769236676885268%</t>
+  </si>
+  <si>
+    <t>18.21786382646738%</t>
+  </si>
+  <si>
+    <t>11.448627149582112%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>3.7497407246010015%</t>
+  </si>
+  <si>
+    <t>18.565010121659178%</t>
+  </si>
+  <si>
+    <t>14.815269397058177%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>17.50724420930624%</t>
+  </si>
+  <si>
+    <t>19.26025673789538%</t>
+  </si>
+  <si>
+    <t>1.7530125285891387%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>1.1638805636532108%</t>
+  </si>
+  <si>
+    <t>3.7297177500259%</t>
+  </si>
+  <si>
+    <t>2.565837186372689%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>1.461675041370534%</t>
+  </si>
+  <si>
+    <t>6.541861012468229%</t>
+  </si>
+  <si>
+    <t>5.080185971097695%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>7.460131588087607%</t>
+  </si>
+  <si>
+    <t>13.054817424076806%</t>
+  </si>
+  <si>
+    <t>5.594685835989199%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>10.465876744390872%</t>
+  </si>
+  <si>
+    <t>11.136316771880686%</t>
+  </si>
+  <si>
+    <t>0.6704400274898141%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>2.120490132950313%</t>
+  </si>
+  <si>
+    <t>3.7778075393086112%</t>
+  </si>
+  <si>
+    <t>1.657317406358298%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>3.609515166197224%</t>
+  </si>
+  <si>
+    <t>12.08367313151876%</t>
+  </si>
+  <si>
+    <t>8.474157965321535%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>49.8274374460742%</t>
+  </si>
+  <si>
+    <t>45.36559310624527%</t>
+  </si>
+  <si>
+    <t>-4.461844339828929%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>2.5262081548215907%</t>
+  </si>
+  <si>
+    <t>5.191059024065239%</t>
+  </si>
+  <si>
+    <t>2.664850869243648%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>2.115126042518782%</t>
+  </si>
+  <si>
+    <t>3.633142868421312%</t>
+  </si>
+  <si>
+    <t>1.5180168259025302%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>8.441828369997173%</t>
+  </si>
+  <si>
+    <t>8.590538723970088%</t>
+  </si>
+  <si>
+    <t>0.14871035397291443%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>20.377238675477187%</t>
+  </si>
+  <si>
+    <t>34.55810836534124%</t>
+  </si>
+  <si>
+    <t>14.180869689864053%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>9.207931510533793%</t>
+  </si>
+  <si>
+    <t>8.705844466221166%</t>
+  </si>
+  <si>
+    <t>-0.5020870443126277%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>1.1381465803542257%</t>
+  </si>
+  <si>
+    <t>5.049417306636805%</t>
+  </si>
+  <si>
+    <t>3.911270726282579%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>2.0113575076932837%</t>
+  </si>
+  <si>
+    <t>3.858431065673351%</t>
+  </si>
+  <si>
+    <t>1.8470735579800674%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>5.391603430899997%</t>
+  </si>
+  <si>
+    <t>6.89880766094001%</t>
+  </si>
+  <si>
+    <t>1.5072042300400126%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>15.44534990645908%</t>
+  </si>
+  <si>
+    <t>24.893939393939394%</t>
+  </si>
+  <si>
+    <t>9.448589487480314%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>49.09265928180872%</t>
+  </si>
+  <si>
+    <t>43.91860969204293%</t>
+  </si>
+  <si>
+    <t>-5.174049589765794%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>6.95354894067554%</t>
+  </si>
+  <si>
+    <t>9.418045182205017%</t>
+  </si>
+  <si>
+    <t>2.464496241529477%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>2.627582232593261%</t>
+  </si>
+  <si>
+    <t>6.646406380054587%</t>
+  </si>
+  <si>
+    <t>4.018824147461325%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>2.3856435779896903%</t>
+  </si>
+  <si>
+    <t>9.245646861157782%</t>
+  </si>
+  <si>
+    <t>6.860003283168092%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>7.149649052171533%</t>
+  </si>
+  <si>
+    <t>9.514388249526299%</t>
+  </si>
+  <si>
+    <t>2.3647391973547656%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1081,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.1520749113951563</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.1418091821200602</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>-0.01026572927509609</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.06254</v>
@@ -655,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>110505</v>
@@ -672,14 +1122,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.1291074464169923</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.1153290093244731</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>-0.01377843709251925</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.04688375053033517</v>
@@ -696,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>94753</v>
@@ -713,14 +1163,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.1009179783813375</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.1023771011547626</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.001459122773425123</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.02572014115092291</v>
@@ -737,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>672951</v>
@@ -754,14 +1204,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.09038778781473157</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.1114890690094498</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.02110128119471824</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.02246164886515354</v>
@@ -778,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>27106</v>
@@ -795,14 +1245,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.02905525923131013</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.08641309745059372</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.05735783821928359</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.008194074969770255</v>
@@ -819,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>34712</v>
@@ -836,14 +1286,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.04518115022420065</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.05420155880372857</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.009020408579527912</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.01054434993924666</v>
@@ -860,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1653</v>
@@ -877,14 +1327,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.006471085639122469</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.02822509576821395</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.02175401012909148</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0.002467164179104478</v>
@@ -901,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>199621</v>
@@ -918,14 +1368,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.06084412649248261</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.07091268938478604</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.01006856289230343</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.015316580986726</v>
@@ -942,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>236225</v>
@@ -959,14 +1409,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.1059446508995373</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.1038946189976487</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>-0.00205003190188853</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.0362697681559957</v>
@@ -983,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>27937</v>
@@ -1000,14 +1450,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.08691715849306672</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.1020827284379891</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.01516556994492235</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.02510062893081761</v>
@@ -1024,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>74025</v>
@@ -1041,14 +1491,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.07826120052311573</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.2765212737489965</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0.1982600732258808</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.02661812297734628</v>
@@ -1065,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>119701</v>
@@ -1082,14 +1532,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.2952562072350733</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.2734670447762332</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>-0.02178916245884005</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.1182816205533597</v>
@@ -1106,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>102981</v>
@@ -1123,14 +1573,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.02875620431841504</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.06383124426160487</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.03507503994318983</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.008991617916703047</v>
@@ -1147,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>60812</v>
@@ -1164,14 +1614,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.0243989043522988</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.05869271249982873</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.03429380814752993</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.01094134580784455</v>
@@ -1188,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>13869</v>
@@ -1205,14 +1655,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.01300476813367653</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.1365802383268168</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.1235754701931403</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0.005590084643288996</v>
@@ -1229,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>53391</v>
@@ -1246,14 +1696,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.03649910480085151</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.0508746571960433</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.01437555239519178</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.01445343800757986</v>
@@ -1270,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>125516</v>
@@ -1287,14 +1737,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.03253133301073968</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.03446102724225844</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.001929694231518765</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0.02972903837044055</v>
@@ -1311,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>65263</v>
@@ -1328,14 +1778,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.04638971540514145</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.05680415874490175</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.01041444333976031</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.01083563008467541</v>
@@ -1352,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>50546</v>
@@ -1369,14 +1819,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.03983239910888148</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.05370405568981312</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.01387165658093164</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.01053041666666667</v>
@@ -1393,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>151630</v>
@@ -1410,14 +1860,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.3315969488619465</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.3647759516232014</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.03317900276125485</v>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0.1230762987012987</v>
@@ -1434,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>102166</v>
@@ -1451,14 +1901,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.03554704122010767</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.07295070948792852</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.03740366826782085</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.01097261303834175</v>
@@ -1475,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>60972</v>
@@ -1492,14 +1942,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.04351990772397706</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.1447121086195373</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.1011922008955602</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.01388883826879271</v>
@@ -1516,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>43149</v>
@@ -1533,14 +1983,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.02908284793395783</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.052505528914581</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.02342268098062318</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.008412751023591344</v>
@@ -1557,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>84868</v>
@@ -1574,14 +2024,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0.08247530881594074</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.06400868728425253</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>-0.01846662153168821</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0.03290732842186894</v>
@@ -1598,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>123371</v>
@@ -1615,14 +2065,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.3549723637681952</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.3062789640143677</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>-0.04869339975382753</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.15421375</v>
@@ -1639,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>168721</v>
@@ -1656,14 +2106,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.08207643590346055</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.08019395186231114</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>-0.001882484041149407</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.02531827731092437</v>
@@ -1680,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>21154</v>
@@ -1697,14 +2147,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0.06769236676885268</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.1821786382646738</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.1144862714958211</v>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.03315673981191222</v>
@@ -1721,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>19705</v>
@@ -1738,14 +2188,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.03749740724601001</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.1856501012165918</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.1481526939705818</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.01613841113841114</v>
@@ -1762,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>46824</v>
@@ -1779,14 +2229,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.1750724420930624</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.1926025673789538</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.0175301252858914</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.04210791366906474</v>
@@ -1803,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>26139</v>
@@ -1820,14 +2270,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.01163880563653211</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.037297177500259</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.02565837186372689</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0.003367126111039547</v>
@@ -1844,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>8718</v>
@@ -1861,14 +2311,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.01461675041370534</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.06541861012468229</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.05080185971097696</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.005727989487516426</v>
@@ -1885,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>30070</v>
@@ -1902,14 +2352,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.07460131588087607</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.1305481742407681</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>0.05594685835989199</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.01900758533501896</v>
@@ -1926,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>390950</v>
@@ -1943,14 +2393,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.1046587674439087</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.1113631677188069</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.006704400274898145</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.02169413462072027</v>
@@ -1967,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>79958</v>
@@ -1984,14 +2434,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.02120490132950313</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.03777807539308611</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.01657317406358298</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.007359904270986746</v>
@@ -2008,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>49914</v>
@@ -2025,14 +2475,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0.03609515166197224</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.1208367313151876</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.08474157965321535</v>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.01585074626865672</v>
@@ -2049,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>487410</v>
@@ -2066,14 +2516,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>0.498274374460742</v>
-      </c>
-      <c r="I37" s="4" t="n">
-        <v>0.4536559310624527</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>-0.0446184433982893</v>
+      <c r="H37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.1704230769230769</v>
@@ -2090,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>91855</v>
@@ -2107,14 +2557,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.02526208154821591</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.05191059024065239</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.02664850869243648</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.007716962110392338</v>
@@ -2131,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4499</v>
@@ -2148,14 +2598,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.02115126042518782</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.03633142868421312</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.01518016825902531</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.004472166998011929</v>
@@ -2172,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>106617</v>
@@ -2189,14 +2639,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.08441828369997173</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.08590538723970087</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.00148710353972914</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.03045329905741217</v>
@@ -2213,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>44283</v>
@@ -2230,14 +2680,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.2037723867547719</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.3455810836534124</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.1418086968986405</v>
+      <c r="H41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.06353371592539454</v>
@@ -2254,7 +2704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>165010</v>
@@ -2271,14 +2721,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.09207931510533793</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.08705844466221166</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>-0.005020870443126269</v>
+      <c r="H42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.03371679607682877</v>
@@ -2295,7 +2745,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>117290</v>
@@ -2312,14 +2762,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.01138146580354226</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.05049417306636805</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.03911270726282579</v>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.006876355748373102</v>
@@ -2336,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>10778</v>
@@ -2353,14 +2803,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.02011357507693284</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.03858431065673351</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.01847073557980067</v>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.006226458694396302</v>
@@ -2377,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>105874</v>
@@ -2394,14 +2844,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.05391603430899997</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.0689880766094001</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.01507204230040012</v>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.01702975711758083</v>
@@ -2418,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>19484</v>
@@ -2435,14 +2885,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.1544534990645908</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.2489393939393939</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.09448589487480313</v>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.03448495575221239</v>
@@ -2459,7 +2909,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1004696</v>
@@ -2476,14 +2926,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.4909265928180872</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.4391860969204293</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>-0.05174049589765795</v>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>0.2049145421170712</v>
@@ -2500,7 +2950,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>103244</v>
@@ -2517,14 +2967,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.0695354894067554</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.09418045182205016</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.02464496241529476</v>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.02104872579001019</v>
@@ -2541,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>18512</v>
@@ -2558,14 +3008,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.02627582232593261</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.06646406380054587</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>0.04018824147461326</v>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.01032459564974902</v>
@@ -2582,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>9529</v>
@@ -2599,14 +3049,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.0238564357798969</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.09245646861157782</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>0.06860003283168091</v>
+      <c r="H50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>0.02098898678414097</v>
@@ -2623,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>6041883</v>
@@ -2640,14 +3090,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.07149649052171533</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.09514388249526298</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.02364739197354765</v>
+      <c r="H51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.0242040316797731</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Renewable energy total consumption._                        Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Renewable energy total consumption._                        Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>3.142875242046079%</t>
+  </si>
+  <si>
+    <t>3.493840046072616%</t>
+  </si>
+  <si>
+    <t>0.3509648040265372%</t>
   </si>
   <si>
     <t>AL</t>
@@ -1013,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,19 +1079,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>253287</v>
+        <v>18357</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>270793</v>
+        <v>21658</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.069115272398504</v>
+        <v>1.179822411069347</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1091,13 +1103,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.06254</v>
+        <v>0.03319529837251356</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.05578759785743716</v>
+        <v>0.02934688346883469</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>-0.006752402142562834</v>
+        <v>-0.003848414903678873</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1108,19 +1120,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>110505</v>
+        <v>253287</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>121730</v>
+        <v>270793</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.101579114067237</v>
+        <v>1.069115272398504</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1132,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.04688375053033517</v>
+        <v>0.06254</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.04087642713230356</v>
+        <v>0.05578759785743716</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>-0.006007323398031617</v>
+        <v>-0.006752402142562834</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1149,19 +1161,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>94753</v>
+        <v>110505</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>147409</v>
+        <v>121730</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.555718552446888</v>
+        <v>1.101579114067237</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1173,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.02572014115092291</v>
+        <v>0.04688375053033517</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.02162056321501907</v>
+        <v>0.04087642713230356</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>-0.004099577935903844</v>
+        <v>-0.006007323398031617</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1190,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>672951</v>
+        <v>94753</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>855828</v>
+        <v>147409</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.271753812684727</v>
+        <v>1.555718552446888</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1214,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.02246164886515354</v>
+        <v>0.02572014115092291</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.02194768425911679</v>
+        <v>0.02162056321501907</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.0005139646060367507</v>
+        <v>-0.004099577935903844</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1231,19 +1243,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>27106</v>
+        <v>672951</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>127911</v>
+        <v>855828</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.718918320667011</v>
+        <v>1.271753812684727</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1255,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.008194074969770255</v>
+        <v>0.02246164886515354</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.02347421545237658</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0.01528014048260633</v>
+        <v>0.02194768425911679</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>-0.0005139646060367507</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1272,19 +1284,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>34712</v>
+        <v>27106</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>40738</v>
+        <v>127911</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.17359990781286</v>
+        <v>4.718918320667011</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1296,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.01054434993924666</v>
+        <v>0.008194074969770255</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.01136345885634589</v>
+        <v>0.02347421545237658</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.0008191089170992271</v>
+        <v>0.01528014048260633</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1313,19 +1325,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1653</v>
+        <v>34712</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7847</v>
+        <v>40738</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.747126436781609</v>
+        <v>1.17359990781286</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1337,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.002467164179104478</v>
+        <v>0.01054434993924666</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.0083125</v>
+        <v>0.01136345885634589</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.005845335820895523</v>
+        <v>0.0008191089170992271</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1354,19 +1366,19 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>199621</v>
+        <v>1653</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>300790</v>
+        <v>7847</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.506805396225848</v>
+        <v>4.747126436781609</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
@@ -1378,13 +1390,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.015316580986726</v>
+        <v>0.002467164179104478</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.01485749567794517</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>-0.0004590853087808305</v>
+        <v>0.0083125</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0.005845335820895523</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1395,19 +1407,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>236225</v>
+        <v>199621</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>296226</v>
+        <v>300790</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.253999365012171</v>
+        <v>1.506805396225848</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
@@ -1419,13 +1431,13 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.0362697681559957</v>
+        <v>0.015316580986726</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.02904461221688401</v>
+        <v>0.01485749567794517</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-0.007225155939111695</v>
+        <v>-0.0004590853087808305</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1436,19 +1448,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>27937</v>
+        <v>236225</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>28830</v>
+        <v>296226</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.031964777893117</v>
+        <v>1.253999365012171</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1460,13 +1472,13 @@
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.02510062893081761</v>
+        <v>0.0362697681559957</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.02023157894736842</v>
+        <v>0.02904461221688401</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>-0.00486904998344919</v>
+        <v>-0.007225155939111695</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1477,19 +1489,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>74025</v>
+        <v>27937</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>413344</v>
+        <v>28830</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5.583843296183722</v>
+        <v>1.031964777893117</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1497,17 +1509,17 @@
       <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.02661812297734628</v>
+        <v>0.02510062893081761</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.1323971812940423</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0.105779058316696</v>
+        <v>0.02023157894736842</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>-0.00486904998344919</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1518,19 +1530,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>119701</v>
+        <v>74025</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>143396</v>
+        <v>413344</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.197951562643587</v>
+        <v>5.583843296183722</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1538,17 +1550,17 @@
       <c r="I13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.1182816205533597</v>
+        <v>0.02661812297734628</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.08674894131881428</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>-0.0315326792345454</v>
+        <v>0.1323971812940423</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0.105779058316696</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1559,19 +1571,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>102981</v>
+        <v>119701</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>251670</v>
+        <v>143396</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.443848865324671</v>
+        <v>1.197951562643587</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1583,13 +1595,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.008991617916703047</v>
+        <v>0.1182816205533597</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.0196019939247605</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0.01061037600805745</v>
+        <v>0.08674894131881428</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>-0.0315326792345454</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1600,19 +1612,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>60812</v>
+        <v>102981</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>167061</v>
+        <v>251670</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.747171610866276</v>
+        <v>2.443848865324671</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1624,13 +1636,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.01094134580784455</v>
+        <v>0.008991617916703047</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.02526251323151368</v>
+        <v>0.0196019939247605</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.01432116742366914</v>
+        <v>0.01061037600805745</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1641,19 +1653,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>13869</v>
+        <v>60812</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>147866</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>10.6616194390367</v>
+        <v>167061</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>2.747171610866276</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1665,13 +1677,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.005590084643288996</v>
+        <v>0.01094134580784455</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.05086549707602339</v>
+        <v>0.02526251323151368</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.0452754124327344</v>
+        <v>0.01432116742366914</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1682,19 +1694,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>53391</v>
+        <v>13869</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>87783</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>1.644153509018374</v>
+        <v>147866</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>10.6616194390367</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1706,13 +1718,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.01445343800757986</v>
+        <v>0.005590084643288996</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.01983796610169491</v>
+        <v>0.05086549707602339</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.005384528094115056</v>
+        <v>0.0452754124327344</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1723,19 +1735,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>125516</v>
+        <v>53391</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>146766</v>
+        <v>87783</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.169301124956181</v>
+        <v>1.644153509018374</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1747,13 +1759,13 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.02972903837044055</v>
+        <v>0.01445343800757986</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.03143414007282073</v>
+        <v>0.01983796610169491</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.001705101702380186</v>
+        <v>0.005384528094115056</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1764,19 +1776,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>65263</v>
+        <v>125516</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>82074</v>
+        <v>146766</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.257588526423854</v>
+        <v>1.169301124956181</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1788,13 +1800,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.01083563008467541</v>
+        <v>0.02972903837044055</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.01209817216981132</v>
+        <v>0.03143414007282073</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.001262542085135909</v>
+        <v>0.001705101702380186</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1805,19 +1817,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>50546</v>
+        <v>65263</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>75157</v>
+        <v>82074</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.486903019032169</v>
+        <v>1.257588526423854</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1829,13 +1841,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.01053041666666667</v>
+        <v>0.01083563008467541</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.01253661384487073</v>
+        <v>0.01209817216981132</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.002006197178204059</v>
+        <v>0.001262542085135909</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1846,19 +1858,19 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>151630</v>
+        <v>50546</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>147971</v>
+        <v>75157</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.9758688913803337</v>
+        <v>1.486903019032169</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>89</v>
@@ -1870,13 +1882,13 @@
         <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.1230762987012987</v>
+        <v>0.01053041666666667</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.1113401053423627</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>-0.01173619335893603</v>
+        <v>0.01253661384487073</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0.002006197178204059</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1887,19 +1899,19 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>102166</v>
+        <v>151630</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>201880</v>
+        <v>147971</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.975999843392127</v>
+        <v>0.9758688913803337</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
@@ -1911,13 +1923,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.01097261303834175</v>
+        <v>0.1230762987012987</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.02035491026416616</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>0.009382297225824416</v>
+        <v>0.1113401053423627</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>-0.01173619335893603</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1928,19 +1940,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>60972</v>
+        <v>102166</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>256129</v>
+        <v>201880</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>4.200764285245686</v>
+        <v>1.975999843392127</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1952,13 +1964,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.01388883826879271</v>
+        <v>0.01097261303834175</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.04672181685516235</v>
+        <v>0.02035491026416616</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.03283297858636964</v>
+        <v>0.009382297225824416</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1969,19 +1981,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43149</v>
+        <v>60972</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>95915</v>
+        <v>256129</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.222878861619041</v>
+        <v>4.200764285245686</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1993,13 +2005,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.008412751023591344</v>
+        <v>0.01388883826879271</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.0157858788676761</v>
+        <v>0.04672181685516235</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.007373127844084761</v>
+        <v>0.03283297858636964</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2010,19 +2022,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>84868</v>
+        <v>43149</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>72502</v>
+        <v>95915</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.8542913701277277</v>
+        <v>2.222878861619041</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2034,13 +2046,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.03290732842186894</v>
+        <v>0.008412751023591344</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.02425627300100368</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>-0.008651055420865261</v>
+        <v>0.0157858788676761</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0.007373127844084761</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2051,19 +2063,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>123371</v>
+        <v>84868</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>119888</v>
+        <v>72502</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.9717680816399316</v>
+        <v>0.8542913701277277</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2075,13 +2087,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.15421375</v>
+        <v>0.03290732842186894</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.1161705426356589</v>
+        <v>0.02425627300100368</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>-0.03804320736434109</v>
+        <v>-0.008651055420865261</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2092,19 +2104,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>168721</v>
+        <v>123371</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>202387</v>
+        <v>119888</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.199536512941483</v>
+        <v>0.9717680816399316</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2116,13 +2128,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.02531827731092437</v>
+        <v>0.15421375</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.02016811160936722</v>
+        <v>0.1161705426356589</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.005150165701557154</v>
+        <v>-0.03804320736434109</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2133,19 +2145,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>21154</v>
+        <v>168721</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>110685</v>
+        <v>202387</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>5.23234376477262</v>
+        <v>1.199536512941483</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>117</v>
@@ -2157,13 +2169,13 @@
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.03315673981191222</v>
+        <v>0.02531827731092437</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.146215323645971</v>
-      </c>
-      <c r="M28" s="4" t="n">
-        <v>0.1130585838340587</v>
+        <v>0.02016811160936722</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>-0.005150165701557154</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2174,19 +2186,19 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>19705</v>
+        <v>21154</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>158382</v>
+        <v>110685</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>8.03765541740675</v>
+        <v>5.23234376477262</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>121</v>
@@ -2198,13 +2210,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.01613841113841114</v>
+        <v>0.03315673981191222</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.05491747572815534</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0.0387790645897442</v>
+        <v>0.146215323645971</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>0.1130585838340587</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2215,19 +2227,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>46824</v>
+        <v>19705</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>58785</v>
+        <v>158382</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.255445925166581</v>
+        <v>8.03765541740675</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2239,13 +2251,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.04210791366906474</v>
+        <v>0.01613841113841114</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.04419924812030075</v>
+        <v>0.05491747572815534</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.002091334451236007</v>
+        <v>0.0387790645897442</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2256,19 +2268,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>26139</v>
+        <v>46824</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>85323</v>
+        <v>58785</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>3.264202915184208</v>
+        <v>1.255445925166581</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2280,13 +2292,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.003367126111039547</v>
+        <v>0.04210791366906474</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.009549300503637382</v>
+        <v>0.04419924812030075</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.006182174392597835</v>
+        <v>0.002091334451236007</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2297,19 +2309,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>8718</v>
+        <v>26139</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44194</v>
+        <v>85323</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>5.069281945400321</v>
+        <v>3.264202915184208</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2321,13 +2333,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.005727989487516426</v>
+        <v>0.003367126111039547</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.02124711538461539</v>
+        <v>0.009549300503637382</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.01551912589709896</v>
+        <v>0.006182174392597835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2338,19 +2350,19 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>30070</v>
+        <v>8718</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>84796</v>
+        <v>44194</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.81995344196874</v>
+        <v>5.069281945400321</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
@@ -2362,13 +2374,13 @@
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.01900758533501896</v>
+        <v>0.005727989487516426</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.04477085533262935</v>
+        <v>0.02124711538461539</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.02576326999761039</v>
+        <v>0.01551912589709896</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2379,19 +2391,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>390950</v>
+        <v>30070</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>414769</v>
+        <v>84796</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.060925949609925</v>
+        <v>2.81995344196874</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2403,13 +2415,13 @@
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.02169413462072027</v>
+        <v>0.01900758533501896</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.02100415252949815</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>-0.0006899820912221188</v>
+        <v>0.04477085533262935</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>0.02576326999761039</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2420,19 +2432,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>79958</v>
+        <v>390950</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>141322</v>
+        <v>414769</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.767452912779209</v>
+        <v>1.060925949609925</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2444,13 +2456,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.007359904270986746</v>
+        <v>0.02169413462072027</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.01217768203360621</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>0.004817777762619459</v>
+        <v>0.02100415252949815</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>-0.0006899820912221188</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2461,19 +2473,19 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>49914</v>
+        <v>79958</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>197069</v>
+        <v>141322</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>3.948170853868654</v>
+        <v>1.767452912779209</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>149</v>
@@ -2485,13 +2497,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.01585074626865672</v>
+        <v>0.007359904270986746</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.05043997952393141</v>
+        <v>0.01217768203360621</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0.03458923325527469</v>
+        <v>0.004817777762619459</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2502,37 +2514,37 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>487410</v>
+        <v>49914</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>434009</v>
+        <v>197069</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.8904392605814406</v>
+        <v>3.948170853868654</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
-      </c>
-      <c r="H37" s="4" t="s">
+        <v>3907000</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="2" t="s">
         <v>154</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.1704230769230769</v>
+        <v>0.01585074626865672</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.1078283229813665</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>-0.06259475394171046</v>
+        <v>0.05043997952393141</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>0.03458923325527469</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2543,37 +2555,37 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>91855</v>
+        <v>487410</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>201484</v>
+        <v>434009</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.193500625986609</v>
+        <v>0.8904392605814406</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
-      </c>
-      <c r="H38" s="2" t="s">
+        <v>4025000</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="4" t="s">
         <v>158</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.007716962110392338</v>
+        <v>0.1704230769230769</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.01575078173858662</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>0.008033819628194279</v>
+        <v>0.1078283229813665</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>-0.06259475394171046</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2584,19 +2596,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>4499</v>
+        <v>91855</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7363</v>
+        <v>201484</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1.636585907979551</v>
+        <v>2.193500625986609</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2608,13 +2620,13 @@
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.004472166998011929</v>
+        <v>0.007716962110392338</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.006972537878787878</v>
+        <v>0.01575078173858662</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.00250037088077595</v>
+        <v>0.008033819628194279</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2625,19 +2637,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>106617</v>
+        <v>4499</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>141614</v>
+        <v>7363</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.32824971627414</v>
+        <v>1.636585907979551</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2649,13 +2661,13 @@
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.03045329905741217</v>
+        <v>0.004472166998011929</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.02893033707865169</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>-0.001522961978760482</v>
+        <v>0.006972537878787878</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>0.00250037088077595</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2666,19 +2678,19 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44283</v>
+        <v>106617</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>132530</v>
+        <v>141614</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2.992796332678454</v>
+        <v>1.32824971627414</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>169</v>
@@ -2690,13 +2702,13 @@
         <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.06353371592539454</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>0.1544638694638695</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>0.09093015353847493</v>
+        <v>0.03045329905741217</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>0.02893033707865169</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>-0.001522961978760482</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2707,19 +2719,19 @@
         <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>165010</v>
+        <v>44283</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>188695</v>
+        <v>132530</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1.143536755348161</v>
+        <v>2.992796332678454</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>173</v>
@@ -2731,13 +2743,13 @@
         <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.03371679607682877</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>0.02861182714177407</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>-0.005104968935054702</v>
+        <v>0.06353371592539454</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>0.1544638694638695</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>0.09093015353847493</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2748,19 +2760,19 @@
         <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>117290</v>
+        <v>165010</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>651254</v>
+        <v>188695</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>5.552510870491943</v>
+        <v>1.143536755348161</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>177</v>
@@ -2772,36 +2784,36 @@
         <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.006876355748373102</v>
+        <v>0.03371679607682877</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.02374239883339409</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>0.01686604308502099</v>
+        <v>0.02861182714177407</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>-0.005104968935054702</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>10778</v>
+        <v>117290</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>30521</v>
+        <v>651254</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>2.831786973464465</v>
+        <v>5.552510870491943</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>181</v>
@@ -2813,13 +2825,13 @@
         <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.006226458694396302</v>
+        <v>0.006876355748373102</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.01020427950518221</v>
+        <v>0.02374239883339409</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.003977820810785911</v>
+        <v>0.01686604308502099</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2830,19 +2842,19 @@
         <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>105874</v>
+        <v>10778</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>163343</v>
+        <v>30521</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1.542805599108374</v>
+        <v>2.831786973464465</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>185</v>
@@ -2854,13 +2866,13 @@
         <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.01702975711758083</v>
+        <v>0.006226458694396302</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.0195199569789675</v>
+        <v>0.01020427950518221</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.002490199861386669</v>
+        <v>0.003977820810785911</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2871,19 +2883,19 @@
         <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>19484</v>
+        <v>105874</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>32860</v>
+        <v>163343</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1.686512009854239</v>
+        <v>1.542805599108374</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>189</v>
@@ -2895,13 +2907,13 @@
         <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.03448495575221239</v>
+        <v>0.01702975711758083</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.05249201277955272</v>
+        <v>0.0195199569789675</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.01800705702734033</v>
+        <v>0.002490199861386669</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2912,19 +2924,19 @@
         <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1004696</v>
+        <v>19484</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>873275</v>
+        <v>32860</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.8691932684115394</v>
+        <v>1.686512009854239</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>193</v>
@@ -2935,14 +2947,14 @@
       <c r="J47" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K47" s="4" t="n">
-        <v>0.2049145421170712</v>
+      <c r="K47" s="2" t="n">
+        <v>0.03448495575221239</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.121965782122905</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>-0.08294875999416616</v>
+        <v>0.05249201277955272</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>0.01800705702734033</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2953,19 +2965,19 @@
         <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>103244</v>
+        <v>1004696</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>167282</v>
+        <v>873275</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.620258804385727</v>
+        <v>0.8691932684115394</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>197</v>
@@ -2976,14 +2988,14 @@
       <c r="J48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K48" s="2" t="n">
-        <v>0.02104872579001019</v>
+      <c r="K48" s="4" t="n">
+        <v>0.2049145421170712</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.02900173370319001</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>0.007953007913179821</v>
+        <v>0.121965782122905</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>-0.08294875999416616</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2994,19 +3006,19 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>18512</v>
+        <v>103244</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>51504</v>
+        <v>167282</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.78219533275713</v>
+        <v>1.620258804385727</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>201</v>
@@ -3018,36 +3030,36 @@
         <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.01032459564974902</v>
+        <v>0.02104872579001019</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.02797609994568169</v>
+        <v>0.02900173370319001</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.01765150429593267</v>
+        <v>0.007953007913179821</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>9529</v>
+        <v>18512</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>48425</v>
+        <v>51504</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>5.081855388813097</v>
+        <v>2.78219533275713</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>205</v>
@@ -3059,36 +3071,36 @@
         <v>207</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.02098898678414097</v>
+        <v>0.01032459564974902</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.08249574105621806</v>
+        <v>0.02797609994568169</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.06150675427207709</v>
+        <v>0.01765150429593267</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>6041883</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>9252840</v>
+      <c r="C51" s="2" t="n">
+        <v>9529</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>48425</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.531449715262609</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>5.081855388813097</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>209</v>
@@ -3100,12 +3112,53 @@
         <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>0.02098898678414097</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.08249574105621806</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.06150675427207709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>6041883</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>9252840</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.531449715262609</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.0242040316797731</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.02883429885601922</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.004630267176246126</v>
       </c>
     </row>
